--- a/excel/game_rule.xlsx
+++ b/excel/game_rule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m1mac/Documents/github/xlsx2json_2/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{20AE2E28-08E4-4345-8D18-16397C9549E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6B473D53-725A-AA44-84BB-1895481B6BCC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="2160" windowWidth="28000" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7180" yWindow="4440" windowWidth="28000" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="groups" sheetId="2" r:id="rId2"/>
-    <sheet name="children" sheetId="5" r:id="rId3"/>
+    <sheet name="scrollView" sheetId="1" r:id="rId1"/>
+    <sheet name="grp_item" sheetId="2" r:id="rId2"/>
+    <sheet name="child" sheetId="5" r:id="rId3"/>
     <sheet name="items" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -23,13 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="165">
-  <si>
-    <t>rId</t>
-  </si>
-  <si>
-    <t>规则序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="169">
   <si>
     <t>规则组</t>
   </si>
@@ -47,10 +41,6 @@
   </si>
   <si>
     <t>组id</t>
-  </si>
-  <si>
-    <t>groups:#groups.rId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>touchEnabled</t>
@@ -76,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,24 +161,8 @@
     <t>UIScale9</t>
   </si>
   <si>
-    <t>iId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>else</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>children:#children.iId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:#items.jId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ck_other0</t>
@@ -718,6 +688,72 @@
   </si>
   <si>
     <t>ck_other10</t>
+  </si>
+  <si>
+    <t>scrllView关联Id</t>
+    <rPh sb="0" eb="2">
+      <t>guan'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联Id</t>
+    <rPh sb="0" eb="2">
+      <t>guan'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联Id</t>
+    <rPh sb="0" eb="2">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grp_item关联Id</t>
+    <rPh sb="0" eb="2">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联Id</t>
+    <rPh sb="0" eb="2">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children关联Id</t>
+    <rPh sb="0" eb="2">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:#items.cId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grp_item:#grp_item.sId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child:#child.gId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1062,7 +1098,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14"/>
@@ -1080,73 +1116,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1160,60 +1196,60 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1221,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1239,7 +1275,7 @@
         <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1278,63 +1314,67 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>6</v>
+      <c r="A1" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1342,53 +1382,53 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D4">
         <v>830</v>
@@ -1403,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1427,101 +1467,102 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1531,20 +1572,20 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1554,20 +1595,20 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1577,20 +1618,20 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1600,20 +1641,20 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1623,20 +1664,20 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1646,20 +1687,20 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1669,20 +1710,20 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1703,14 +1744,15 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.1640625" customWidth="1"/>
@@ -1722,63 +1764,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1790,43 +1832,43 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1834,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1848,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1859,13 +1901,13 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1873,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1884,13 +1926,13 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1898,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1909,13 +1951,13 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1923,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1934,13 +1976,13 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1948,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1959,13 +2001,13 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1973,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1984,13 +2026,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1998,26 +2040,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2025,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2036,13 +2078,13 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2050,26 +2092,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2077,26 +2119,26 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2104,10 +2146,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2115,13 +2157,13 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2129,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2143,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2154,13 +2196,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2168,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2179,13 +2221,13 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2193,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2207,10 +2249,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2218,13 +2260,13 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2232,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2243,13 +2285,13 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2257,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2268,13 +2310,13 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2282,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2296,28 +2338,28 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2325,28 +2367,28 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2354,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2368,27 +2410,27 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2396,27 +2438,27 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2424,28 +2466,28 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2453,28 +2495,28 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2482,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2496,28 +2538,28 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2525,28 +2567,28 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2554,27 +2596,27 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2582,17 +2624,17 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2">
         <v>400</v>
@@ -2601,13 +2643,13 @@
         <v>30</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2616,7 +2658,7 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2630,10 +2672,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2641,13 +2683,13 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2655,10 +2697,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2666,13 +2708,13 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2680,10 +2722,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2691,13 +2733,13 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2707,7 +2749,7 @@
       <c r="B40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2721,10 +2763,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2732,13 +2774,13 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2746,10 +2788,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2757,13 +2799,13 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2771,10 +2813,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2782,13 +2824,13 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
